--- a/src/gen/avrcodes.xlsx
+++ b/src/gen/avrcodes.xlsx
@@ -307,7 +307,7 @@
     <t>i_dvd</t>
   </si>
   <si>
-    <t>inputsource..dvd</t>
+    <t>inputsource.dvd</t>
   </si>
   <si>
     <t>dvd</t>
@@ -643,7 +643,7 @@
     <t>i_usb_ipod</t>
   </si>
   <si>
-    <t>inputsource.usr_ipod</t>
+    <t>inputsource.usb_ipod</t>
   </si>
   <si>
     <t>usb Ipod</t>
@@ -679,7 +679,7 @@
     <t>i_irp</t>
   </si>
   <si>
-    <t>inputsouce.irp</t>
+    <t>inputsource.irp</t>
   </si>
   <si>
     <t>Internet radio and recent play</t>
@@ -1389,18 +1389,18 @@
   </sheetPr>
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="45" min="6" style="0" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="45" min="6" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/gen/avrcodes.xlsx
+++ b/src/gen/avrcodes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="319">
   <si>
     <t>group</t>
   </si>
@@ -166,6 +166,9 @@
     <t>ZMON</t>
   </si>
   <si>
+    <t>mzpower_on</t>
+  </si>
+  <si>
     <t>mzpower.on</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>ZMOFF</t>
   </si>
   <si>
+    <t>mzpower_off</t>
+  </si>
+  <si>
     <t>mzpower.off</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
   </si>
   <si>
     <t>ZM?</t>
+  </si>
+  <si>
+    <t>mzpower_request</t>
   </si>
   <si>
     <t>mzpower.request</t>
@@ -1389,18 +1398,17 @@
   </sheetPr>
   <dimension ref="A1:AG72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D48" activeCellId="0" sqref="D48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="45" min="6" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="45" min="6" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,13 +1821,13 @@
         <v>47</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>38</v>
@@ -1911,16 +1919,16 @@
         <v>46</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
@@ -2012,13 +2020,13 @@
         <v>46</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
@@ -2108,19 +2116,19 @@
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>38</v>
@@ -2209,19 +2217,19 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>38</v>
@@ -2310,19 +2318,19 @@
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>38</v>
@@ -2411,16 +2419,16 @@
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="6" t="s">
@@ -2510,19 +2518,19 @@
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>38</v>
@@ -2611,19 +2619,19 @@
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>38</v>
@@ -2712,16 +2720,16 @@
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
@@ -2811,19 +2819,19 @@
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>38</v>
@@ -2871,60 +2879,60 @@
         <v>38</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG15" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>38</v>
@@ -3013,19 +3021,19 @@
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>38</v>
@@ -3106,27 +3114,27 @@
         <v>38</v>
       </c>
       <c r="AF17" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>38</v>
@@ -3215,19 +3223,19 @@
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>38</v>
@@ -3316,19 +3324,19 @@
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
@@ -3373,7 +3381,7 @@
         <v>38</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>38</v>
@@ -3391,7 +3399,7 @@
         <v>38</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA20" s="6" t="s">
         <v>38</v>
@@ -3406,7 +3414,7 @@
         <v>38</v>
       </c>
       <c r="AE20" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF20" s="6" t="s">
         <v>38</v>
@@ -3417,120 +3425,120 @@
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>38</v>
@@ -3545,7 +3553,7 @@
         <v>38</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>38</v>
@@ -3560,7 +3568,7 @@
         <v>38</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>38</v>
@@ -3575,10 +3583,10 @@
         <v>38</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V22" s="6" t="s">
         <v>38</v>
@@ -3593,7 +3601,7 @@
         <v>38</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA22" s="6" t="s">
         <v>38</v>
@@ -3608,7 +3616,7 @@
         <v>38</v>
       </c>
       <c r="AE22" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF22" s="6" t="s">
         <v>38</v>
@@ -3619,61 +3627,61 @@
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>38</v>
@@ -3682,57 +3690,57 @@
         <v>38</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z23" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG23" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>38</v>
@@ -3821,120 +3829,120 @@
     </row>
     <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="V25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG25" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>38</v>
@@ -4023,40 +4031,40 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>38</v>
@@ -4068,10 +4076,10 @@
         <v>38</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>38</v>
@@ -4080,16 +4088,16 @@
         <v>38</v>
       </c>
       <c r="T27" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X27" s="6" t="s">
         <v>38</v>
@@ -4098,13 +4106,13 @@
         <v>38</v>
       </c>
       <c r="Z27" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB27" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>38</v>
@@ -4113,7 +4121,7 @@
         <v>38</v>
       </c>
       <c r="AE27" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF27" s="6" t="s">
         <v>38</v>
@@ -4124,120 +4132,120 @@
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE28" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>38</v>
@@ -4255,7 +4263,7 @@
         <v>38</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>38</v>
@@ -4270,7 +4278,7 @@
         <v>38</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>38</v>
@@ -4285,10 +4293,10 @@
         <v>38</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V29" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>38</v>
@@ -4303,7 +4311,7 @@
         <v>38</v>
       </c>
       <c r="AA29" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB29" s="7" t="s">
         <v>38</v>
@@ -4318,7 +4326,7 @@
         <v>38</v>
       </c>
       <c r="AF29" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG29" s="7" t="s">
         <v>38</v>
@@ -4326,19 +4334,19 @@
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>38</v>
@@ -4386,7 +4394,7 @@
         <v>38</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V30" s="6" t="s">
         <v>38</v>
@@ -4427,19 +4435,19 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>38</v>
@@ -4487,7 +4495,7 @@
         <v>38</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>38</v>
@@ -4528,19 +4536,19 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>38</v>
@@ -4588,7 +4596,7 @@
         <v>38</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V32" s="6" t="s">
         <v>38</v>
@@ -4629,73 +4637,73 @@
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W33" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X33" s="6" t="s">
         <v>38</v>
@@ -4707,42 +4715,42 @@
         <v>38</v>
       </c>
       <c r="AA33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG33" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>38</v>
@@ -4757,7 +4765,7 @@
         <v>38</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>38</v>
@@ -4772,7 +4780,7 @@
         <v>38</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>38</v>
@@ -4790,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V34" s="6" t="s">
         <v>38</v>
@@ -4820,7 +4828,7 @@
         <v>38</v>
       </c>
       <c r="AE34" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF34" s="7" t="s">
         <v>38</v>
@@ -4831,19 +4839,19 @@
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>38</v>
@@ -4858,7 +4866,7 @@
         <v>38</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>38</v>
@@ -4873,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>38</v>
@@ -4891,7 +4899,7 @@
         <v>38</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V35" s="6" t="s">
         <v>38</v>
@@ -4903,10 +4911,10 @@
         <v>38</v>
       </c>
       <c r="Y35" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z35" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA35" s="6" t="s">
         <v>38</v>
@@ -4918,33 +4926,33 @@
         <v>38</v>
       </c>
       <c r="AD35" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE35" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF35" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG35" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>38</v>
@@ -4953,99 +4961,99 @@
         <v>38</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>38</v>
@@ -5054,99 +5062,99 @@
         <v>38</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG37" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>38</v>
@@ -5155,99 +5163,99 @@
         <v>38</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG38" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>38</v>
@@ -5256,99 +5264,99 @@
         <v>38</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>38</v>
@@ -5357,99 +5365,99 @@
         <v>38</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG40" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>38</v>
@@ -5464,7 +5472,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>38</v>
@@ -5494,10 +5502,10 @@
         <v>38</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V41" s="6" t="s">
         <v>38</v>
@@ -5512,7 +5520,7 @@
         <v>38</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA41" s="6" t="s">
         <v>38</v>
@@ -5527,7 +5535,7 @@
         <v>38</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF41" s="6" t="s">
         <v>38</v>
@@ -5538,135 +5546,135 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE42" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG42" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>38</v>
@@ -5675,13 +5683,13 @@
         <v>38</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>38</v>
@@ -5690,16 +5698,16 @@
         <v>38</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V43" s="6" t="s">
         <v>38</v>
@@ -5708,13 +5716,13 @@
         <v>38</v>
       </c>
       <c r="X43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA43" s="6" t="s">
         <v>38</v>
@@ -5723,45 +5731,45 @@
         <v>38</v>
       </c>
       <c r="AC43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF43" s="22" t="s">
         <v>38</v>
       </c>
       <c r="AG43" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>38</v>
@@ -5770,10 +5778,10 @@
         <v>38</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>38</v>
@@ -5785,10 +5793,10 @@
         <v>38</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R44" s="6" t="s">
         <v>38</v>
@@ -5803,10 +5811,10 @@
         <v>38</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X44" s="6" t="s">
         <v>38</v>
@@ -5818,10 +5826,10 @@
         <v>38</v>
       </c>
       <c r="AA44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB44" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC44" s="7" t="s">
         <v>38</v>
@@ -5833,7 +5841,7 @@
         <v>38</v>
       </c>
       <c r="AF44" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG44" s="7" t="s">
         <v>38</v>
@@ -5841,19 +5849,19 @@
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>38</v>
@@ -5942,19 +5950,19 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>38</v>
@@ -6043,19 +6051,19 @@
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>38</v>
@@ -6144,19 +6152,19 @@
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>38</v>
@@ -6171,7 +6179,7 @@
         <v>38</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>38</v>
@@ -6186,7 +6194,7 @@
         <v>38</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>38</v>
@@ -6204,7 +6212,7 @@
         <v>38</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V48" s="6" t="s">
         <v>38</v>
@@ -6245,19 +6253,19 @@
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>38</v>
@@ -6272,7 +6280,7 @@
         <v>38</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>38</v>
@@ -6287,7 +6295,7 @@
         <v>38</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>38</v>
@@ -6305,7 +6313,7 @@
         <v>38</v>
       </c>
       <c r="U49" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V49" s="6" t="s">
         <v>38</v>
@@ -6346,117 +6354,117 @@
     </row>
     <row r="50" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AA50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AF50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="6" t="s">
@@ -6546,34 +6554,34 @@
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>38</v>
@@ -6582,13 +6590,13 @@
         <v>38</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P52" s="6" t="s">
         <v>38</v>
@@ -6597,16 +6605,16 @@
         <v>38</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V52" s="6" t="s">
         <v>38</v>
@@ -6615,13 +6623,13 @@
         <v>38</v>
       </c>
       <c r="X52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA52" s="6" t="s">
         <v>38</v>
@@ -6630,51 +6638,51 @@
         <v>38</v>
       </c>
       <c r="AC52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF52" s="22" t="s">
         <v>38</v>
       </c>
       <c r="AG52" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>38</v>
@@ -6683,13 +6691,13 @@
         <v>38</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P53" s="6" t="s">
         <v>38</v>
@@ -6698,16 +6706,16 @@
         <v>38</v>
       </c>
       <c r="R53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V53" s="6" t="s">
         <v>38</v>
@@ -6716,13 +6724,13 @@
         <v>38</v>
       </c>
       <c r="X53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="6" t="s">
         <v>38</v>
@@ -6731,51 +6739,51 @@
         <v>38</v>
       </c>
       <c r="AC53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="22" t="s">
         <v>38</v>
       </c>
       <c r="AG53" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>38</v>
@@ -6784,13 +6792,13 @@
         <v>38</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P54" s="6" t="s">
         <v>38</v>
@@ -6799,16 +6807,16 @@
         <v>38</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V54" s="6" t="s">
         <v>38</v>
@@ -6817,13 +6825,13 @@
         <v>38</v>
       </c>
       <c r="X54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA54" s="6" t="s">
         <v>38</v>
@@ -6832,49 +6840,49 @@
         <v>38</v>
       </c>
       <c r="AC54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF54" s="22" t="s">
         <v>38</v>
       </c>
       <c r="AG54" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>38</v>
@@ -6883,13 +6891,13 @@
         <v>38</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P55" s="6" t="s">
         <v>38</v>
@@ -6898,16 +6906,16 @@
         <v>38</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V55" s="6" t="s">
         <v>38</v>
@@ -6916,13 +6924,13 @@
         <v>38</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA55" s="6" t="s">
         <v>38</v>
@@ -6931,36 +6939,36 @@
         <v>38</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF55" s="22" t="s">
         <v>38</v>
       </c>
       <c r="AG55" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>38</v>
@@ -6975,7 +6983,7 @@
         <v>38</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>38</v>
@@ -6990,7 +6998,7 @@
         <v>38</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>38</v>
@@ -7005,10 +7013,10 @@
         <v>38</v>
       </c>
       <c r="T56" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U56" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V56" s="6" t="s">
         <v>38</v>
@@ -7023,7 +7031,7 @@
         <v>38</v>
       </c>
       <c r="Z56" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="6" t="s">
         <v>38</v>
@@ -7038,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="AE56" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF56" s="6" t="s">
         <v>38</v>
@@ -7049,19 +7057,19 @@
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>38</v>
@@ -7076,7 +7084,7 @@
         <v>38</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>38</v>
@@ -7091,7 +7099,7 @@
         <v>38</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>38</v>
@@ -7106,10 +7114,10 @@
         <v>38</v>
       </c>
       <c r="T57" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U57" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V57" s="6" t="s">
         <v>38</v>
@@ -7124,7 +7132,7 @@
         <v>38</v>
       </c>
       <c r="Z57" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="6" t="s">
         <v>38</v>
@@ -7139,7 +7147,7 @@
         <v>38</v>
       </c>
       <c r="AE57" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="6" t="s">
         <v>38</v>
@@ -7150,19 +7158,19 @@
     </row>
     <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>38</v>
@@ -7177,7 +7185,7 @@
         <v>38</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>38</v>
@@ -7192,7 +7200,7 @@
         <v>38</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>38</v>
@@ -7207,10 +7215,10 @@
         <v>38</v>
       </c>
       <c r="T58" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V58" s="6" t="s">
         <v>38</v>
@@ -7225,7 +7233,7 @@
         <v>38</v>
       </c>
       <c r="Z58" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="6" t="s">
         <v>38</v>
@@ -7240,7 +7248,7 @@
         <v>38</v>
       </c>
       <c r="AE58" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF58" s="6" t="s">
         <v>38</v>
@@ -7251,19 +7259,19 @@
     </row>
     <row r="59" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>38</v>
@@ -7352,19 +7360,19 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>38</v>
@@ -7453,19 +7461,19 @@
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>38</v>
@@ -7554,19 +7562,19 @@
     </row>
     <row r="62" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>38</v>
@@ -7655,221 +7663,221 @@
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U63" s="6" t="s">
         <v>38</v>
       </c>
       <c r="V63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG63" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J64" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O64" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U64" s="6" t="s">
         <v>38</v>
       </c>
       <c r="V64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z64" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG64" s="14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>38</v>
@@ -7958,19 +7966,19 @@
     </row>
     <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>38</v>
@@ -8059,19 +8067,19 @@
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>38</v>
@@ -8160,120 +8168,120 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>38</v>
       </c>
       <c r="K68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="U68" s="6" t="s">
         <v>38</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="X68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Y68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Z68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AB68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AD68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG68" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>38</v>
@@ -8362,19 +8370,19 @@
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>38</v>
@@ -8389,7 +8397,7 @@
         <v>38</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>38</v>
@@ -8404,7 +8412,7 @@
         <v>38</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>38</v>
@@ -8422,7 +8430,7 @@
         <v>38</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V70" s="6" t="s">
         <v>38</v>
@@ -8463,19 +8471,19 @@
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>38</v>
@@ -8490,7 +8498,7 @@
         <v>38</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>38</v>
@@ -8505,7 +8513,7 @@
         <v>38</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>38</v>
@@ -8523,7 +8531,7 @@
         <v>38</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="V71" s="6" t="s">
         <v>38</v>
@@ -8564,16 +8572,16 @@
     </row>
     <row r="72" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
@@ -8637,7 +8645,7 @@
         <v>38</v>
       </c>
       <c r="Z72" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AA72" s="6" t="s">
         <v>38</v>
@@ -8652,7 +8660,7 @@
         <v>38</v>
       </c>
       <c r="AE72" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AF72" s="6" t="s">
         <v>38</v>

--- a/src/gen/avrcodes.xlsx
+++ b/src/gen/avrcodes.xlsx
@@ -31,7 +31,7 @@
     <t>prog_id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>i18n</t>
   </si>
   <si>
     <t>text</t>
@@ -274,7 +274,7 @@
     <t>MU?</t>
   </si>
   <si>
-    <t>m_request</t>
+    <t>mute_request</t>
   </si>
   <si>
     <t>mute.request</t>
@@ -283,6 +283,261 @@
     <t>inputsource</t>
   </si>
   <si>
+    <t>SIAUX1</t>
+  </si>
+  <si>
+    <t>i_aux1</t>
+  </si>
+  <si>
+    <t>inputsource.aux1</t>
+  </si>
+  <si>
+    <t>aux1</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>SIAUX2</t>
+  </si>
+  <si>
+    <t>i_aux2</t>
+  </si>
+  <si>
+    <t>inputsource.aux2</t>
+  </si>
+  <si>
+    <t>aux2</t>
+  </si>
+  <si>
+    <t>SIAUX3</t>
+  </si>
+  <si>
+    <t>i_aux3</t>
+  </si>
+  <si>
+    <t>inputsource.aux3</t>
+  </si>
+  <si>
+    <t>aux3</t>
+  </si>
+  <si>
+    <t>SIAUX4</t>
+  </si>
+  <si>
+    <t>i_aux4</t>
+  </si>
+  <si>
+    <t>inputsource.aux4</t>
+  </si>
+  <si>
+    <t>aux4</t>
+  </si>
+  <si>
+    <t>SIAUX5</t>
+  </si>
+  <si>
+    <t>i_aux5</t>
+  </si>
+  <si>
+    <t>inputsource.aux5</t>
+  </si>
+  <si>
+    <t>aux5</t>
+  </si>
+  <si>
+    <t>SIAUX6</t>
+  </si>
+  <si>
+    <t>i_aux6</t>
+  </si>
+  <si>
+    <t>inputsource.aux6</t>
+  </si>
+  <si>
+    <t>aux6</t>
+  </si>
+  <si>
+    <t>SIAUX7</t>
+  </si>
+  <si>
+    <t>i_aux7</t>
+  </si>
+  <si>
+    <t>inputsource.aux7</t>
+  </si>
+  <si>
+    <t>aux7</t>
+  </si>
+  <si>
+    <t>SIBD</t>
+  </si>
+  <si>
+    <t>i_bd</t>
+  </si>
+  <si>
+    <t>inputsource.bd</t>
+  </si>
+  <si>
+    <t>blueray player</t>
+  </si>
+  <si>
+    <t>SIBT</t>
+  </si>
+  <si>
+    <t>i_bt</t>
+  </si>
+  <si>
+    <t>inputsource.bt</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>SICD</t>
+  </si>
+  <si>
+    <t>i_cd</t>
+  </si>
+  <si>
+    <t>inputsource.cd</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>SICDR</t>
+  </si>
+  <si>
+    <t>i_cdr</t>
+  </si>
+  <si>
+    <t>inputsource.cdr</t>
+  </si>
+  <si>
+    <t>CDR player</t>
+  </si>
+  <si>
+    <t>SIDVD</t>
+  </si>
+  <si>
+    <t>i_dvd</t>
+  </si>
+  <si>
+    <t>inputsource.dvd</t>
+  </si>
+  <si>
+    <t>dvd</t>
+  </si>
+  <si>
+    <t>SIFAVORITES</t>
+  </si>
+  <si>
+    <t>i_favorites</t>
+  </si>
+  <si>
+    <t>inputsource.favorites</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>SIFLICKR</t>
+  </si>
+  <si>
+    <t>i_flickr</t>
+  </si>
+  <si>
+    <t>inputsource.flickr</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>SIGAME</t>
+  </si>
+  <si>
+    <t>i_game</t>
+  </si>
+  <si>
+    <t>inputsource.game</t>
+  </si>
+  <si>
+    <t>game console</t>
+  </si>
+  <si>
+    <t>SIIRADIO</t>
+  </si>
+  <si>
+    <t>i_iradio</t>
+  </si>
+  <si>
+    <t>inputsource.iradio</t>
+  </si>
+  <si>
+    <t>Internet radio</t>
+  </si>
+  <si>
+    <t>SIMPLAY</t>
+  </si>
+  <si>
+    <t>i_mplay</t>
+  </si>
+  <si>
+    <t>inputsource.mplay</t>
+  </si>
+  <si>
+    <t>media player</t>
+  </si>
+  <si>
+    <t>SIMXPORT</t>
+  </si>
+  <si>
+    <t>i_mxport</t>
+  </si>
+  <si>
+    <t>inputsource.mxport</t>
+  </si>
+  <si>
+    <t>Mxport</t>
+  </si>
+  <si>
+    <t>SINAPSTER</t>
+  </si>
+  <si>
+    <t>i_napster</t>
+  </si>
+  <si>
+    <t>inputsource.napster</t>
+  </si>
+  <si>
+    <t>Napster</t>
+  </si>
+  <si>
+    <t>SINET</t>
+  </si>
+  <si>
+    <t>i_net</t>
+  </si>
+  <si>
+    <t>inputsource.net</t>
+  </si>
+  <si>
+    <t>Online music</t>
+  </si>
+  <si>
+    <t>SINET/USB</t>
+  </si>
+  <si>
+    <t>i_net_usb</t>
+  </si>
+  <si>
+    <t>inputsource.net_usb</t>
+  </si>
+  <si>
+    <t>net usb</t>
+  </si>
+  <si>
     <t>SIPHONO</t>
   </si>
   <si>
@@ -295,43 +550,64 @@
     <t>phono</t>
   </si>
   <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>SICD</t>
-  </si>
-  <si>
-    <t>i_cd</t>
-  </si>
-  <si>
-    <t>inputsource.cd</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>SIDVD</t>
-  </si>
-  <si>
-    <t>i_dvd</t>
-  </si>
-  <si>
-    <t>inputsource.dvd</t>
-  </si>
-  <si>
-    <t>dvd</t>
-  </si>
-  <si>
-    <t>SIBD</t>
-  </si>
-  <si>
-    <t>i_bd</t>
-  </si>
-  <si>
-    <t>inputsource.bd</t>
-  </si>
-  <si>
-    <t>blueray player</t>
+    <t>SISAT</t>
+  </si>
+  <si>
+    <t>i_sat</t>
+  </si>
+  <si>
+    <t>inputsource.sat</t>
+  </si>
+  <si>
+    <t>satelite</t>
+  </si>
+  <si>
+    <t>SISAT/CBL </t>
+  </si>
+  <si>
+    <t>i_sat_cbl</t>
+  </si>
+  <si>
+    <t>inputsource.sat_cbl</t>
+  </si>
+  <si>
+    <t>satelite plus cable</t>
+  </si>
+  <si>
+    <t>SISERVER</t>
+  </si>
+  <si>
+    <t>i_server</t>
+  </si>
+  <si>
+    <t>inputsource.server</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>SISPOTIFY</t>
+  </si>
+  <si>
+    <t>i_spotify</t>
+  </si>
+  <si>
+    <t>inputsource.spotify</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>SITUNER</t>
+  </si>
+  <si>
+    <t>i_tuner</t>
+  </si>
+  <si>
+    <t>inputsource.tuner</t>
+  </si>
+  <si>
+    <t>tuner</t>
   </si>
   <si>
     <t>SITV</t>
@@ -346,40 +622,28 @@
     <t>tv</t>
   </si>
   <si>
-    <t>SISAT/CBL </t>
-  </si>
-  <si>
-    <t>i_sat_cbl</t>
-  </si>
-  <si>
-    <t>inputsource.sat_cbl</t>
-  </si>
-  <si>
-    <t>satelite plus cable</t>
-  </si>
-  <si>
-    <t>SISAT</t>
-  </si>
-  <si>
-    <t>i_sat</t>
-  </si>
-  <si>
-    <t>inputsource.sat</t>
-  </si>
-  <si>
-    <t>satelite</t>
-  </si>
-  <si>
-    <t>SIMPLAY</t>
-  </si>
-  <si>
-    <t>i_mplay</t>
-  </si>
-  <si>
-    <t>inputsource.mplay</t>
-  </si>
-  <si>
-    <t>media player</t>
+    <t>SIUSB/IPOD</t>
+  </si>
+  <si>
+    <t>i_usb_ipod</t>
+  </si>
+  <si>
+    <t>inputsource.usb_ipod</t>
+  </si>
+  <si>
+    <t>usb Ipod</t>
+  </si>
+  <si>
+    <t>SIV.AUX</t>
+  </si>
+  <si>
+    <t>i_vaux</t>
+  </si>
+  <si>
+    <t>inputsource.v_aux</t>
+  </si>
+  <si>
+    <t>v.aux</t>
   </si>
   <si>
     <t>SIVCR</t>
@@ -394,270 +658,6 @@
     <t>vcr player</t>
   </si>
   <si>
-    <t>SIGAME</t>
-  </si>
-  <si>
-    <t>i_game</t>
-  </si>
-  <si>
-    <t>inputsource.game</t>
-  </si>
-  <si>
-    <t>game console</t>
-  </si>
-  <si>
-    <t>SIV.AUX</t>
-  </si>
-  <si>
-    <t>i_vaux</t>
-  </si>
-  <si>
-    <t>inputsource.v_aux</t>
-  </si>
-  <si>
-    <t>v.aux</t>
-  </si>
-  <si>
-    <t>SITUNER</t>
-  </si>
-  <si>
-    <t>i_tuner</t>
-  </si>
-  <si>
-    <t>inputsource.tuner</t>
-  </si>
-  <si>
-    <t>tuner</t>
-  </si>
-  <si>
-    <t>SISPOTIFY</t>
-  </si>
-  <si>
-    <t>i_spotify</t>
-  </si>
-  <si>
-    <t>inputsource.spotify</t>
-  </si>
-  <si>
-    <t>Spotify</t>
-  </si>
-  <si>
-    <t>SINAPSTER</t>
-  </si>
-  <si>
-    <t>i_napster</t>
-  </si>
-  <si>
-    <t>inputsource.napster</t>
-  </si>
-  <si>
-    <t>Napster</t>
-  </si>
-  <si>
-    <t>SIFLICKR</t>
-  </si>
-  <si>
-    <t>i_flickr</t>
-  </si>
-  <si>
-    <t>inputsource.flickr</t>
-  </si>
-  <si>
-    <t>Flickr</t>
-  </si>
-  <si>
-    <t>SIIRADIO</t>
-  </si>
-  <si>
-    <t>i_iradio</t>
-  </si>
-  <si>
-    <t>inputsource.iradio</t>
-  </si>
-  <si>
-    <t>Internet radio</t>
-  </si>
-  <si>
-    <t>SISERVER</t>
-  </si>
-  <si>
-    <t>i_server</t>
-  </si>
-  <si>
-    <t>inputsource.server</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>SIFAVORITES</t>
-  </si>
-  <si>
-    <t>i_favorites</t>
-  </si>
-  <si>
-    <t>inputsource.favorites</t>
-  </si>
-  <si>
-    <t>Favorites</t>
-  </si>
-  <si>
-    <t>SICDR</t>
-  </si>
-  <si>
-    <t>i_cdr</t>
-  </si>
-  <si>
-    <t>inputsource.cdr</t>
-  </si>
-  <si>
-    <t>CDR player</t>
-  </si>
-  <si>
-    <t>SIAUX1</t>
-  </si>
-  <si>
-    <t>i_aux1</t>
-  </si>
-  <si>
-    <t>inputsource.aux1</t>
-  </si>
-  <si>
-    <t>aux1</t>
-  </si>
-  <si>
-    <t>SIAUX2</t>
-  </si>
-  <si>
-    <t>i_aux2</t>
-  </si>
-  <si>
-    <t>inputsource.aux2</t>
-  </si>
-  <si>
-    <t>aux2</t>
-  </si>
-  <si>
-    <t>SIAUX3</t>
-  </si>
-  <si>
-    <t>i_aux3</t>
-  </si>
-  <si>
-    <t>inputsource.aux3</t>
-  </si>
-  <si>
-    <t>aux3</t>
-  </si>
-  <si>
-    <t>SIAUX4</t>
-  </si>
-  <si>
-    <t>i_aux4</t>
-  </si>
-  <si>
-    <t>inputsource.aux4</t>
-  </si>
-  <si>
-    <t>aux4</t>
-  </si>
-  <si>
-    <t>SIAUX5</t>
-  </si>
-  <si>
-    <t>i_aux5</t>
-  </si>
-  <si>
-    <t>inputsource.aux5</t>
-  </si>
-  <si>
-    <t>aux5</t>
-  </si>
-  <si>
-    <t>SIAUX6</t>
-  </si>
-  <si>
-    <t>i_aux6</t>
-  </si>
-  <si>
-    <t>inputsource.aux6</t>
-  </si>
-  <si>
-    <t>aux6</t>
-  </si>
-  <si>
-    <t>SIAUX7</t>
-  </si>
-  <si>
-    <t>i_aux7</t>
-  </si>
-  <si>
-    <t>inputsource.aux7</t>
-  </si>
-  <si>
-    <t>aux7</t>
-  </si>
-  <si>
-    <t>SINET</t>
-  </si>
-  <si>
-    <t>i_net</t>
-  </si>
-  <si>
-    <t>inputsource.net</t>
-  </si>
-  <si>
-    <t>Online music</t>
-  </si>
-  <si>
-    <t>SINET/USB</t>
-  </si>
-  <si>
-    <t>i_net_usb</t>
-  </si>
-  <si>
-    <t>inputsource.net_usb</t>
-  </si>
-  <si>
-    <t>net usb</t>
-  </si>
-  <si>
-    <t>SIBT</t>
-  </si>
-  <si>
-    <t>i_bt</t>
-  </si>
-  <si>
-    <t>inputsource.bt</t>
-  </si>
-  <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
-    <t>SIMXPORT</t>
-  </si>
-  <si>
-    <t>i_mxport</t>
-  </si>
-  <si>
-    <t>inputsource.mxport</t>
-  </si>
-  <si>
-    <t>Mxport</t>
-  </si>
-  <si>
-    <t>SIUSB/IPOD</t>
-  </si>
-  <si>
-    <t>i_usb_ipod</t>
-  </si>
-  <si>
-    <t>inputsource.usb_ipod</t>
-  </si>
-  <si>
-    <t>usb Ipod</t>
-  </si>
-  <si>
     <t>SIUSB</t>
   </si>
   <si>
@@ -730,6 +730,18 @@
     <t>eco</t>
   </si>
   <si>
+    <t>ECOAUTO</t>
+  </si>
+  <si>
+    <t>eco_auto</t>
+  </si>
+  <si>
+    <t>eco.auto</t>
+  </si>
+  <si>
+    <t>eco auto</t>
+  </si>
+  <si>
     <t>ECOON</t>
   </si>
   <si>
@@ -742,18 +754,6 @@
     <t>eco on</t>
   </si>
   <si>
-    <t>ECOAUTO</t>
-  </si>
-  <si>
-    <t>eco_auto</t>
-  </si>
-  <si>
-    <t>eco.auto</t>
-  </si>
-  <si>
-    <t>eco auto</t>
-  </si>
-  <si>
     <t>ECOOFF</t>
   </si>
   <si>
@@ -778,6 +778,102 @@
     <t>surround</t>
   </si>
   <si>
+    <t>MSAUTO</t>
+  </si>
+  <si>
+    <t>s_auto</t>
+  </si>
+  <si>
+    <t>surround.auto</t>
+  </si>
+  <si>
+    <t>surround auto</t>
+  </si>
+  <si>
+    <t>MSDIRECT</t>
+  </si>
+  <si>
+    <t>s_direct</t>
+  </si>
+  <si>
+    <t>surround.direct</t>
+  </si>
+  <si>
+    <t>surround direct</t>
+  </si>
+  <si>
+    <t>MSDOLBY DIGITAL</t>
+  </si>
+  <si>
+    <t>s_dolby</t>
+  </si>
+  <si>
+    <t>surround.dolby</t>
+  </si>
+  <si>
+    <t>surround dolby</t>
+  </si>
+  <si>
+    <t>MSDTS SURROUND</t>
+  </si>
+  <si>
+    <t>s_dts</t>
+  </si>
+  <si>
+    <t>surround.dts</t>
+  </si>
+  <si>
+    <t>surround dts</t>
+  </si>
+  <si>
+    <t>MSGAME</t>
+  </si>
+  <si>
+    <t>s_game</t>
+  </si>
+  <si>
+    <t>surround.game</t>
+  </si>
+  <si>
+    <t>surround game console</t>
+  </si>
+  <si>
+    <t>MSLEFT</t>
+  </si>
+  <si>
+    <t>s_left</t>
+  </si>
+  <si>
+    <t>surround.left</t>
+  </si>
+  <si>
+    <t>surround left</t>
+  </si>
+  <si>
+    <t>MSMATRIX</t>
+  </si>
+  <si>
+    <t>s_matrix</t>
+  </si>
+  <si>
+    <t>surround.matrix</t>
+  </si>
+  <si>
+    <t>surround matrix</t>
+  </si>
+  <si>
+    <t>MSMCH STEREO</t>
+  </si>
+  <si>
+    <t>s_mchstereo</t>
+  </si>
+  <si>
+    <t>surround.mchstereo</t>
+  </si>
+  <si>
+    <t>surround multi channel stereo</t>
+  </si>
+  <si>
     <t>MSMOVIE</t>
   </si>
   <si>
@@ -802,28 +898,16 @@
     <t>surround music</t>
   </si>
   <si>
-    <t>MSGAME</t>
-  </si>
-  <si>
-    <t>s_game</t>
-  </si>
-  <si>
-    <t>surround.game</t>
-  </si>
-  <si>
-    <t>surround game console</t>
-  </si>
-  <si>
-    <t>MSDIRECT</t>
-  </si>
-  <si>
-    <t>s_direct</t>
-  </si>
-  <si>
-    <t>surround.direct</t>
-  </si>
-  <si>
-    <t>surround direct</t>
+    <t>MSNEURAL</t>
+  </si>
+  <si>
+    <t>s_neural</t>
+  </si>
+  <si>
+    <t>surround.neural</t>
+  </si>
+  <si>
+    <t>surround neural</t>
   </si>
   <si>
     <t>MSPURE DIRECT</t>
@@ -838,6 +922,30 @@
     <t>surround pure direct</t>
   </si>
   <si>
+    <t>MSRIGHT</t>
+  </si>
+  <si>
+    <t>s_right</t>
+  </si>
+  <si>
+    <t>surround.right</t>
+  </si>
+  <si>
+    <t>surround right</t>
+  </si>
+  <si>
+    <t>MSSTANDARD</t>
+  </si>
+  <si>
+    <t>s_standard</t>
+  </si>
+  <si>
+    <t>surround.standard</t>
+  </si>
+  <si>
+    <t>surround standard</t>
+  </si>
+  <si>
     <t>MSSTEREO</t>
   </si>
   <si>
@@ -850,90 +958,6 @@
     <t>surround stereo</t>
   </si>
   <si>
-    <t>MSAUTO</t>
-  </si>
-  <si>
-    <t>s_auto</t>
-  </si>
-  <si>
-    <t>surround.auto</t>
-  </si>
-  <si>
-    <t>surround auto</t>
-  </si>
-  <si>
-    <t>MSNEURAL</t>
-  </si>
-  <si>
-    <t>s_neural</t>
-  </si>
-  <si>
-    <t>surround.neural</t>
-  </si>
-  <si>
-    <t>surround neural</t>
-  </si>
-  <si>
-    <t>MSSTANDARD</t>
-  </si>
-  <si>
-    <t>s_standard</t>
-  </si>
-  <si>
-    <t>surround.standard</t>
-  </si>
-  <si>
-    <t>surround standard</t>
-  </si>
-  <si>
-    <t>MSDOLBY DIGITAL</t>
-  </si>
-  <si>
-    <t>s_dolby</t>
-  </si>
-  <si>
-    <t>surround.dolby</t>
-  </si>
-  <si>
-    <t>surround dolby</t>
-  </si>
-  <si>
-    <t>MSDTS SURROUND</t>
-  </si>
-  <si>
-    <t>s_dts</t>
-  </si>
-  <si>
-    <t>surround.dts</t>
-  </si>
-  <si>
-    <t>surround dts</t>
-  </si>
-  <si>
-    <t>MSMCH STEREO</t>
-  </si>
-  <si>
-    <t>s_mchstereo</t>
-  </si>
-  <si>
-    <t>surround.mchstereo</t>
-  </si>
-  <si>
-    <t>surround multi channel stereo</t>
-  </si>
-  <si>
-    <t>MSMATRIX</t>
-  </si>
-  <si>
-    <t>s_matrix</t>
-  </si>
-  <si>
-    <t>surround.matrix</t>
-  </si>
-  <si>
-    <t>surround matrix</t>
-  </si>
-  <si>
     <t>MSVIRTUAL</t>
   </si>
   <si>
@@ -944,30 +968,6 @@
   </si>
   <si>
     <t>surround virtaul</t>
-  </si>
-  <si>
-    <t>MSLEFT</t>
-  </si>
-  <si>
-    <t>s_left</t>
-  </si>
-  <si>
-    <t>surround.left</t>
-  </si>
-  <si>
-    <t>surround left</t>
-  </si>
-  <si>
-    <t>MSRIGHT</t>
-  </si>
-  <si>
-    <t>s_right</t>
-  </si>
-  <si>
-    <t>surround.right</t>
-  </si>
-  <si>
-    <t>surround right</t>
   </si>
   <si>
     <t>MS?</t>
@@ -1270,6 +1270,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1286,15 +1290,7 @@
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1302,11 +1298,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1399,16 +1399,17 @@
   <dimension ref="A1:AG72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="45" min="6" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="45" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="46" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2821,16 +2822,16 @@
       <c r="A15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="13" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -2845,8 +2846,8 @@
       <c r="I15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>38</v>
+      <c r="J15" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>38</v>
@@ -2860,8 +2861,8 @@
       <c r="N15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>38</v>
+      <c r="O15" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>38</v>
@@ -2878,60 +2879,60 @@
       <c r="T15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG15" s="14" t="s">
-        <v>91</v>
+      <c r="U15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -2946,8 +2947,8 @@
       <c r="I16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>38</v>
+      <c r="J16" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>38</v>
@@ -2961,8 +2962,8 @@
       <c r="N16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>38</v>
+      <c r="O16" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>38</v>
@@ -2979,8 +2980,8 @@
       <c r="T16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U16" s="6" t="s">
-        <v>38</v>
+      <c r="U16" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>38</v>
@@ -2991,48 +2992,48 @@
       <c r="X16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Y16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG16" s="7" t="s">
-        <v>38</v>
+      <c r="Y16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG16" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -3041,77 +3042,77 @@
       <c r="G17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE17" s="7" t="s">
-        <v>38</v>
+      <c r="H17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="AF17" s="14" t="s">
         <v>91</v>
@@ -3124,16 +3125,16 @@
       <c r="A18" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -3142,99 +3143,99 @@
       <c r="G18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG18" s="15" t="s">
-        <v>38</v>
+      <c r="H18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG18" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="13" t="s">
         <v>107</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -3243,99 +3244,99 @@
       <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG19" s="7" t="s">
-        <v>38</v>
+      <c r="H19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG19" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="13" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -3344,183 +3345,183 @@
       <c r="G20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD20" s="6" t="s">
-        <v>38</v>
+      <c r="H20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD20" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="AE20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AF20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>38</v>
+      <c r="AF20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG20" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG21" s="13" t="s">
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG21" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3552,8 +3553,8 @@
       <c r="I22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>91</v>
+      <c r="J22" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>38</v>
@@ -3567,8 +3568,8 @@
       <c r="N22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O22" s="13" t="s">
-        <v>91</v>
+      <c r="O22" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P22" s="6" t="s">
         <v>38</v>
@@ -3582,11 +3583,11 @@
       <c r="S22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>91</v>
+      <c r="T22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V22" s="6" t="s">
         <v>38</v>
@@ -3600,28 +3601,28 @@
       <c r="Y22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG22" s="6" t="s">
+      <c r="Z22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG22" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3629,100 +3630,100 @@
       <c r="A23" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG23" s="13" t="s">
+      <c r="F23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG23" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3831,100 +3832,100 @@
       <c r="A25" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="F25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>91</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="13" t="s">
+      <c r="K25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>91</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG25" s="14" t="s">
+      <c r="P25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF25" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG25" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4007,64 +4008,64 @@
       <c r="Z26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG26" s="6" t="s">
-        <v>38</v>
+      <c r="AA26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG26" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>91</v>
+      <c r="F27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>91</v>
+      <c r="H27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>91</v>
+      <c r="J27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M27" s="6" t="s">
         <v>38</v>
@@ -4075,29 +4076,29 @@
       <c r="O27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="13" t="s">
-        <v>91</v>
+      <c r="P27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="R27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>91</v>
+      <c r="S27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="X27" s="6" t="s">
         <v>38</v>
@@ -4105,28 +4106,28 @@
       <c r="Y27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE27" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG27" s="6" t="s">
+      <c r="Z27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG27" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4134,117 +4135,117 @@
       <c r="A28" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>91</v>
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>91</v>
+      <c r="K28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>91</v>
+      <c r="P28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="T28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y28" s="13" t="s">
-        <v>91</v>
+      <c r="U28" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="Z28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD28" s="13" t="s">
-        <v>91</v>
+      <c r="AA28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AE28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG28" s="13" t="s">
-        <v>91</v>
+      <c r="AF28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG28" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="5" t="s">
         <v>147</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -4262,8 +4263,8 @@
       <c r="J29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>91</v>
+      <c r="K29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>38</v>
@@ -4277,8 +4278,8 @@
       <c r="O29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P29" s="19" t="s">
-        <v>91</v>
+      <c r="P29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>38</v>
@@ -4292,11 +4293,11 @@
       <c r="T29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U29" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V29" s="19" t="s">
-        <v>91</v>
+      <c r="U29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>38</v>
@@ -4310,8 +4311,8 @@
       <c r="Z29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA29" s="19" t="s">
-        <v>91</v>
+      <c r="AA29" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AB29" s="7" t="s">
         <v>38</v>
@@ -4325,8 +4326,8 @@
       <c r="AE29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF29" s="19" t="s">
-        <v>91</v>
+      <c r="AF29" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AG29" s="7" t="s">
         <v>38</v>
@@ -4336,16 +4337,16 @@
       <c r="A30" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>151</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -4393,7 +4394,7 @@
       <c r="T30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U30" s="13" t="s">
+      <c r="U30" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V30" s="6" t="s">
@@ -4437,16 +4438,16 @@
       <c r="A31" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="5" t="s">
         <v>155</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -4461,8 +4462,8 @@
       <c r="I31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>38</v>
+      <c r="J31" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>38</v>
@@ -4476,8 +4477,8 @@
       <c r="N31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>38</v>
+      <c r="O31" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>38</v>
@@ -4491,10 +4492,10 @@
       <c r="S31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U31" s="13" t="s">
+      <c r="T31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V31" s="6" t="s">
@@ -4509,28 +4510,28 @@
       <c r="Y31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG31" s="7" t="s">
+      <c r="Z31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE31" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG31" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4538,26 +4539,26 @@
       <c r="A32" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>38</v>
+      <c r="F32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>38</v>
+      <c r="H32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>38</v>
@@ -4565,11 +4566,11 @@
       <c r="J32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>38</v>
+      <c r="K32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>38</v>
@@ -4580,11 +4581,11 @@
       <c r="O32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>38</v>
+      <c r="P32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>38</v>
@@ -4595,14 +4596,14 @@
       <c r="T32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>38</v>
+      <c r="U32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="X32" s="6" t="s">
         <v>38</v>
@@ -4613,11 +4614,11 @@
       <c r="Z32" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB32" s="7" t="s">
-        <v>38</v>
+      <c r="AA32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="AC32" s="7" t="s">
         <v>38</v>
@@ -4628,8 +4629,8 @@
       <c r="AE32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF32" s="7" t="s">
-        <v>38</v>
+      <c r="AF32" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="AG32" s="7" t="s">
         <v>38</v>
@@ -4639,77 +4640,77 @@
       <c r="A33" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="F33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>91</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="13" t="s">
+      <c r="K33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="14" t="s">
         <v>91</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y33" s="6" t="s">
-        <v>38</v>
+      <c r="P33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="Z33" s="6" t="s">
         <v>38</v>
@@ -4726,8 +4727,8 @@
       <c r="AD33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AE33" s="14" t="s">
-        <v>91</v>
+      <c r="AE33" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AF33" s="14" t="s">
         <v>91</v>
@@ -4740,16 +4741,16 @@
       <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="19" t="s">
         <v>167</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -4764,7 +4765,7 @@
       <c r="I34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K34" s="6" t="s">
@@ -4779,8 +4780,8 @@
       <c r="N34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="13" t="s">
-        <v>91</v>
+      <c r="O34" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>38</v>
@@ -4794,10 +4795,10 @@
       <c r="S34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U34" s="13" t="s">
+      <c r="T34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U34" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V34" s="6" t="s">
@@ -4812,28 +4813,28 @@
       <c r="Y34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD34" s="7" t="s">
+      <c r="Z34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD34" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AE34" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AF34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG34" s="7" t="s">
+      <c r="AF34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG34" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4841,95 +4842,95 @@
       <c r="A35" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>38</v>
+      <c r="F35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>38</v>
+      <c r="U35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="AD35" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AE35" s="14" t="s">
-        <v>91</v>
+      <c r="AE35" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AF35" s="14" t="s">
         <v>91</v>
@@ -4942,16 +4943,16 @@
       <c r="A36" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="5" t="s">
         <v>175</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -4960,82 +4961,82 @@
       <c r="G36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF36" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG36" s="13" t="s">
+      <c r="H36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z36" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG36" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5043,100 +5044,100 @@
       <c r="A37" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF37" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG37" s="13" t="s">
+      <c r="F37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG37" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5144,16 +5145,16 @@
       <c r="A38" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="5" t="s">
         <v>183</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -5162,99 +5163,99 @@
       <c r="G38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG38" s="13" t="s">
-        <v>91</v>
+      <c r="H38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="17" t="s">
         <v>187</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -5263,200 +5264,200 @@
       <c r="G39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG39" s="13" t="s">
-        <v>91</v>
+      <c r="H39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG39" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>38</v>
+      <c r="F40" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF40" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG40" s="13" t="s">
-        <v>91</v>
+      <c r="H40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="V40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE40" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="5" t="s">
         <v>195</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -5471,8 +5472,8 @@
       <c r="I41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>91</v>
+      <c r="J41" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>38</v>
@@ -5501,11 +5502,11 @@
       <c r="S41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T41" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>91</v>
+      <c r="T41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V41" s="6" t="s">
         <v>38</v>
@@ -5519,8 +5520,8 @@
       <c r="Y41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z41" s="13" t="s">
-        <v>91</v>
+      <c r="Z41" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA41" s="6" t="s">
         <v>38</v>
@@ -5534,8 +5535,8 @@
       <c r="AD41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE41" s="13" t="s">
-        <v>91</v>
+      <c r="AE41" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AF41" s="6" t="s">
         <v>38</v>
@@ -5548,133 +5549,133 @@
       <c r="A42" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>91</v>
+      <c r="F42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="13" t="s">
-        <v>91</v>
+      <c r="K42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>91</v>
+      <c r="P42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="T42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y42" s="13" t="s">
-        <v>91</v>
+      <c r="U42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="Z42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>91</v>
+      <c r="AA42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AE42" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG42" s="13" t="s">
-        <v>91</v>
+      <c r="AF42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG42" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="23" t="s">
         <v>203</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="13" t="s">
-        <v>91</v>
+      <c r="G43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>91</v>
+      <c r="I43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>38</v>
@@ -5682,14 +5683,14 @@
       <c r="L43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>91</v>
+      <c r="M43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>38</v>
@@ -5697,17 +5698,17 @@
       <c r="Q43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>91</v>
+      <c r="R43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V43" s="6" t="s">
         <v>38</v>
@@ -5715,14 +5716,14 @@
       <c r="W43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z43" s="13" t="s">
-        <v>91</v>
+      <c r="X43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z43" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AA43" s="6" t="s">
         <v>38</v>
@@ -5730,20 +5731,20 @@
       <c r="AB43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF43" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG43" s="13" t="s">
-        <v>91</v>
+      <c r="AC43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5762,148 +5763,148 @@
       <c r="E44" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>38</v>
+      <c r="F44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>38</v>
+      <c r="K44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T44" s="6" t="s">
-        <v>38</v>
+      <c r="P44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T44" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="U44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB44" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF44" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG44" s="7" t="s">
-        <v>38</v>
+      <c r="V44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG44" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>38</v>
+      <c r="F45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>38</v>
+      <c r="K45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>38</v>
+      <c r="P45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="T45" s="6" t="s">
         <v>38</v>
@@ -5911,41 +5912,41 @@
       <c r="U45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>38</v>
+      <c r="V45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y45" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="Z45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG45" s="6" t="s">
-        <v>38</v>
+      <c r="AA45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG45" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6154,16 +6155,16 @@
       <c r="A48" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="13" t="s">
         <v>223</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -6178,7 +6179,7 @@
       <c r="I48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J48" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K48" s="6" t="s">
@@ -6193,7 +6194,7 @@
       <c r="N48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="O48" s="14" t="s">
         <v>91</v>
       </c>
       <c r="P48" s="6" t="s">
@@ -6211,7 +6212,7 @@
       <c r="T48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U48" s="13" t="s">
+      <c r="U48" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V48" s="6" t="s">
@@ -6255,16 +6256,16 @@
       <c r="A49" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="13" t="s">
         <v>227</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -6279,7 +6280,7 @@
       <c r="I49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="13" t="s">
+      <c r="J49" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K49" s="6" t="s">
@@ -6294,7 +6295,7 @@
       <c r="N49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O49" s="13" t="s">
+      <c r="O49" s="14" t="s">
         <v>91</v>
       </c>
       <c r="P49" s="6" t="s">
@@ -6312,7 +6313,7 @@
       <c r="T49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U49" s="13" t="s">
+      <c r="U49" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V49" s="6" t="s">
@@ -6356,100 +6357,100 @@
       <c r="A50" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S50" s="13" t="s">
+      <c r="F50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S50" s="14" t="s">
         <v>91</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="V50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y50" s="13" t="s">
+      <c r="U50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y50" s="14" t="s">
         <v>91</v>
       </c>
       <c r="Z50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD50" s="13" t="s">
+      <c r="AA50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD50" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AE50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AF50" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG50" s="13" t="s">
+      <c r="AF50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG50" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6457,16 +6458,16 @@
       <c r="A51" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="13"/>
       <c r="F51" s="6" t="s">
         <v>38</v>
       </c>
@@ -6568,19 +6569,19 @@
       <c r="E52" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J52" s="13" t="s">
+      <c r="F52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K52" s="6" t="s">
@@ -6589,13 +6590,13 @@
       <c r="L52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O52" s="13" t="s">
+      <c r="M52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O52" s="14" t="s">
         <v>91</v>
       </c>
       <c r="P52" s="6" t="s">
@@ -6604,16 +6605,16 @@
       <c r="Q52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U52" s="13" t="s">
+      <c r="R52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U52" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V52" s="6" t="s">
@@ -6622,13 +6623,13 @@
       <c r="W52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z52" s="13" t="s">
+      <c r="X52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z52" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AA52" s="6" t="s">
@@ -6637,19 +6638,19 @@
       <c r="AB52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF52" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG52" s="13" t="s">
+      <c r="AC52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF52" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG52" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6669,19 +6670,19 @@
       <c r="E53" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" s="13" t="s">
+      <c r="F53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K53" s="6" t="s">
@@ -6690,13 +6691,13 @@
       <c r="L53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O53" s="13" t="s">
+      <c r="M53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O53" s="14" t="s">
         <v>91</v>
       </c>
       <c r="P53" s="6" t="s">
@@ -6705,16 +6706,16 @@
       <c r="Q53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="13" t="s">
+      <c r="R53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V53" s="6" t="s">
@@ -6723,13 +6724,13 @@
       <c r="W53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z53" s="13" t="s">
+      <c r="X53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z53" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AA53" s="6" t="s">
@@ -6738,19 +6739,19 @@
       <c r="AB53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF53" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG53" s="13" t="s">
+      <c r="AC53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF53" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG53" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6770,19 +6771,19 @@
       <c r="E54" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" s="13" t="s">
+      <c r="F54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K54" s="6" t="s">
@@ -6791,13 +6792,13 @@
       <c r="L54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O54" s="13" t="s">
+      <c r="M54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="14" t="s">
         <v>91</v>
       </c>
       <c r="P54" s="6" t="s">
@@ -6806,16 +6807,16 @@
       <c r="Q54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U54" s="13" t="s">
+      <c r="R54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U54" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V54" s="6" t="s">
@@ -6824,13 +6825,13 @@
       <c r="W54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z54" s="13" t="s">
+      <c r="X54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z54" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AA54" s="6" t="s">
@@ -6839,19 +6840,19 @@
       <c r="AB54" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF54" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG54" s="13" t="s">
+      <c r="AC54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE54" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG54" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6869,19 +6870,19 @@
         <v>250</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J55" s="13" t="s">
+      <c r="F55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" s="14" t="s">
         <v>91</v>
       </c>
       <c r="K55" s="6" t="s">
@@ -6890,13 +6891,13 @@
       <c r="L55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O55" s="13" t="s">
+      <c r="M55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O55" s="14" t="s">
         <v>91</v>
       </c>
       <c r="P55" s="6" t="s">
@@ -6905,16 +6906,16 @@
       <c r="Q55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="13" t="s">
+      <c r="R55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="14" t="s">
         <v>91</v>
       </c>
       <c r="V55" s="6" t="s">
@@ -6923,13 +6924,13 @@
       <c r="W55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z55" s="13" t="s">
+      <c r="X55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z55" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AA55" s="6" t="s">
@@ -6938,19 +6939,19 @@
       <c r="AB55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AC55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF55" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG55" s="13" t="s">
+      <c r="AC55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG55" s="14" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6958,16 +6959,16 @@
       <c r="A56" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>255</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -6982,8 +6983,8 @@
       <c r="I56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J56" s="14" t="s">
-        <v>91</v>
+      <c r="J56" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>38</v>
@@ -6997,8 +6998,8 @@
       <c r="N56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O56" s="14" t="s">
-        <v>91</v>
+      <c r="O56" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>38</v>
@@ -7012,11 +7013,11 @@
       <c r="S56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T56" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="14" t="s">
-        <v>91</v>
+      <c r="T56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V56" s="6" t="s">
         <v>38</v>
@@ -7030,28 +7031,28 @@
       <c r="Y56" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z56" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE56" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF56" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG56" s="6" t="s">
+      <c r="Z56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG56" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7083,8 +7084,8 @@
       <c r="I57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>91</v>
+      <c r="J57" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K57" s="6" t="s">
         <v>38</v>
@@ -7098,8 +7099,8 @@
       <c r="N57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="14" t="s">
-        <v>91</v>
+      <c r="O57" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P57" s="6" t="s">
         <v>38</v>
@@ -7113,11 +7114,11 @@
       <c r="S57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T57" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="14" t="s">
-        <v>91</v>
+      <c r="T57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V57" s="6" t="s">
         <v>38</v>
@@ -7131,28 +7132,28 @@
       <c r="Y57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z57" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE57" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF57" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG57" s="6" t="s">
+      <c r="Z57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG57" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7160,16 +7161,16 @@
       <c r="A58" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="24" t="s">
         <v>263</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -7184,8 +7185,8 @@
       <c r="I58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J58" s="14" t="s">
-        <v>91</v>
+      <c r="J58" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>38</v>
@@ -7199,8 +7200,8 @@
       <c r="N58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O58" s="14" t="s">
-        <v>91</v>
+      <c r="O58" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>38</v>
@@ -7214,11 +7215,11 @@
       <c r="S58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T58" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="U58" s="14" t="s">
-        <v>91</v>
+      <c r="T58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V58" s="6" t="s">
         <v>38</v>
@@ -7232,28 +7233,28 @@
       <c r="Y58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z58" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE58" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG58" s="6" t="s">
+      <c r="Z58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF58" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG58" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7261,16 +7262,16 @@
       <c r="A59" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="24" t="s">
         <v>267</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -7336,25 +7337,25 @@
       <c r="Z59" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG59" s="7" t="s">
+      <c r="AA59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG59" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7386,8 +7387,8 @@
       <c r="I60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J60" s="6" t="s">
-        <v>38</v>
+      <c r="J60" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>38</v>
@@ -7401,8 +7402,8 @@
       <c r="N60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O60" s="6" t="s">
-        <v>38</v>
+      <c r="O60" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="P60" s="6" t="s">
         <v>38</v>
@@ -7416,11 +7417,11 @@
       <c r="S60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T60" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U60" s="6" t="s">
-        <v>38</v>
+      <c r="T60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="V60" s="6" t="s">
         <v>38</v>
@@ -7434,28 +7435,28 @@
       <c r="Y60" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z60" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG60" s="7" t="s">
+      <c r="Z60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE60" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG60" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7463,16 +7464,16 @@
       <c r="A61" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="13" t="s">
         <v>275</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -7487,8 +7488,8 @@
       <c r="I61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>38</v>
+      <c r="J61" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="K61" s="6" t="s">
         <v>38</v>
@@ -7502,8 +7503,8 @@
       <c r="N61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O61" s="6" t="s">
-        <v>38</v>
+      <c r="O61" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="P61" s="6" t="s">
         <v>38</v>
@@ -7520,8 +7521,8 @@
       <c r="T61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U61" s="6" t="s">
-        <v>38</v>
+      <c r="U61" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="V61" s="6" t="s">
         <v>38</v>
@@ -7538,25 +7539,25 @@
       <c r="Z61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG61" s="7" t="s">
+      <c r="AA61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG61" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7576,307 +7577,307 @@
       <c r="E62" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>38</v>
+      <c r="F62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>38</v>
+      <c r="K62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="O62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T62" s="6" t="s">
-        <v>38</v>
+      <c r="P62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="U62" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG62" s="7" t="s">
-        <v>38</v>
+      <c r="V62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG62" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="F63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>91</v>
+      <c r="F63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>91</v>
+      <c r="K63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T63" s="13" t="s">
-        <v>91</v>
+      <c r="P63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T63" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="U63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z63" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA63" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB63" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC63" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD63" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE63" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF63" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG63" s="14" t="s">
-        <v>91</v>
+      <c r="V63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG63" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U64" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z64" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA64" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB64" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC64" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD64" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE64" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF64" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG64" s="14" t="s">
-        <v>91</v>
+      <c r="F64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE64" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG64" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E65" s="24" t="s">
+      <c r="E65" s="10" t="s">
         <v>291</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -7891,8 +7892,8 @@
       <c r="I65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>38</v>
+      <c r="J65" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>38</v>
@@ -7906,8 +7907,8 @@
       <c r="N65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O65" s="6" t="s">
-        <v>38</v>
+      <c r="O65" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="P65" s="6" t="s">
         <v>38</v>
@@ -7921,11 +7922,11 @@
       <c r="S65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T65" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="U65" s="6" t="s">
-        <v>38</v>
+      <c r="T65" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="U65" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="V65" s="6" t="s">
         <v>38</v>
@@ -7939,28 +7940,28 @@
       <c r="Y65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z65" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG65" s="7" t="s">
+      <c r="Z65" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE65" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF65" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG65" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7968,117 +7969,117 @@
       <c r="A66" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>38</v>
+      <c r="F66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N66" s="6" t="s">
-        <v>38</v>
+      <c r="K66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="O66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T66" s="6" t="s">
-        <v>38</v>
+      <c r="P66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T66" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="U66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF66" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG66" s="6" t="s">
-        <v>38</v>
+      <c r="V66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF66" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG66" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="10" t="s">
         <v>299</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -8144,25 +8145,25 @@
       <c r="Z67" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG67" s="6" t="s">
+      <c r="AA67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF67" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG67" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8170,101 +8171,101 @@
       <c r="A68" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="O68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="U68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="W68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF68" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG68" s="13" t="s">
-        <v>91</v>
+      <c r="F68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG68" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8283,105 +8284,105 @@
       <c r="E69" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>38</v>
+      <c r="F69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N69" s="6" t="s">
-        <v>38</v>
+      <c r="K69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T69" s="6" t="s">
-        <v>38</v>
+      <c r="P69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T69" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="U69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="W69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF69" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG69" s="6" t="s">
-        <v>38</v>
+      <c r="V69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="W69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG69" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="8" t="s">
         <v>311</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -8396,8 +8397,8 @@
       <c r="I70" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>91</v>
+      <c r="J70" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>38</v>
@@ -8411,8 +8412,8 @@
       <c r="N70" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O70" s="13" t="s">
-        <v>91</v>
+      <c r="O70" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P70" s="6" t="s">
         <v>38</v>
@@ -8429,8 +8430,8 @@
       <c r="T70" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>91</v>
+      <c r="U70" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V70" s="6" t="s">
         <v>38</v>
@@ -8447,25 +8448,25 @@
       <c r="Z70" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AA70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG70" s="6" t="s">
+      <c r="AA70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF70" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG70" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8473,16 +8474,16 @@
       <c r="A71" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E71" s="8" t="s">
         <v>315</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -8497,8 +8498,8 @@
       <c r="I71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J71" s="13" t="s">
-        <v>91</v>
+      <c r="J71" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>38</v>
@@ -8512,8 +8513,8 @@
       <c r="N71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O71" s="13" t="s">
-        <v>91</v>
+      <c r="O71" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="P71" s="6" t="s">
         <v>38</v>
@@ -8530,8 +8531,8 @@
       <c r="T71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U71" s="13" t="s">
-        <v>91</v>
+      <c r="U71" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="V71" s="6" t="s">
         <v>38</v>
@@ -8644,7 +8645,7 @@
       <c r="Y72" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z72" s="13" t="s">
+      <c r="Z72" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AA72" s="6" t="s">
@@ -8659,7 +8660,7 @@
       <c r="AD72" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="13" t="s">
+      <c r="AE72" s="14" t="s">
         <v>91</v>
       </c>
       <c r="AF72" s="6" t="s">
